--- a/biology/Botanique/Abuta_rufescens/Abuta_rufescens.xlsx
+++ b/biology/Botanique/Abuta_rufescens/Abuta_rufescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abuta rufescens est une espèce de liane appartenant à la famille des Menispermaceae.
-En Guyane, on l'appelle Pareira blanc (créole)[3]. Ailleurs, on l'appelle White Pareira root (anglais), Abútua, Abútus (portugais)[4].
+En Guyane, on l'appelle Pareira blanc (créole). Ailleurs, on l'appelle White Pareira root (anglais), Abútua, Abútus (portugais).
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abuta rufescens est une liane ligneuse robuste, atteignant la canopée, avec des tiges pouvant dépasser 10 cm de diamètre. Elle est couverte d'une pubescence dense, légèrement tomentuleuse ou veloutée, composée de courts poils blancs lustrés devenant ternes ou roux avec l'âge, sur les jeunes tiges, sur les pétioles, sur la face abaxiale des limbes, sur les inflorescences, sur le périanthe des fleurs, et sur les drupes. 
 Les feuilles sont de forme et de taille variable selon leur emplacement : les feuilles des rameaux fertiles ont un limbe ferme, ample et suborbiculaire, mesurant généralement 8-15 cm de diamètre, avec des pétioles longs de 6-21 cm. Les feuilles des tiges stériles et du sous-bois ombragé sont fermes, discolores, lisses glabres sur la face supérieure, et mesurent jusqu'à 30-40 cm de diamètre, on leur base légèrement cordée, l'apex obtus ou courtement acuminé, des marges irrégulièrement crénelés. On compte 5 nervures principales naissant de la base du limbe, imprimées sur la face supérieur (le limbe est plat entre les nervures primaires et secondaires). La face abaxiale est tomentuleuse, densément alvéolée-réticulée très proéminente , les nervures secondaires incurvées-ascendantes à partir de la nervure médiane, 2-3 de chaque côté, les veinules de connexion sont scalariformes. 
 Les inflorescences sont portées par un pédoncule long de 1,5 à 3 cm. Celles staminées comportent un rachis primaires long de 11 à 22 cm, avec des axes secondaires longs de 1 à 2,5 cm est des pédicelles longs de 4 à 8 mm. Les inflorescences pistillées sont longues de 3 à 10 cm. 
 La fleur comporte des sépales vert jaunâtre : 6 externes sépales qui sont presque deux fois plus courts que les 3 sépales internes ; ces derniers sont distalement incurvés vers l'extérieur, et sont longs de 4 à 5 mm (2 à 3,5 mm pour les fleurs staminées). 
-Les fruits, portés par un pédicelle long d'environ 1 cm, sont des drupes mesurant 24-29 x 15-19 mm, avec un exocarpe densément blanc, devenant roux-velouté orangé à maturité[5],[6].
+Les fruits, portés par un pédicelle long d'environ 1 cm, sont des drupes mesurant 24-29 x 15-19 mm, avec un exocarpe densément blanc, devenant roux-velouté orangé à maturité,.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abuta rufescens est présente sur le plateau des Guyanes (Venezuela, Guyana, Suriname, Guyane) et dans tout le bassin amazonien[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abuta rufescens est présente sur le plateau des Guyanes (Venezuela, Guyana, Suriname, Guyane) et dans tout le bassin amazonien.
 </t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Abuta rufescens autour de 50–800 m d'altitude, dans les forêts primaires de terre ferme, à la fois dans les basses terres non inondées et dans les forêts-galeries de savane des terres hautes[5]. En Guyane, il fleurit en août et fructifie en septembre[6].
-Cette liane joue un rôle non négligeable dans la structuration et la dynamique forestière[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Abuta rufescens autour de 50–800 m d'altitude, dans les forêts primaires de terre ferme, à la fois dans les basses terres non inondées et dans les forêts-galeries de savane des terres hautes. En Guyane, il fleurit en août et fructifie en septembre.
+Cette liane joue un rôle non négligeable dans la structuration et la dynamique forestière.
 </t>
         </is>
       </c>
@@ -610,13 +628,15 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, la tige et les racines d'Abuta rufescens sont préparées en tisanes avec contre les obstructions du foie et la morsure des serpents. Elle entrerait aussi dans la composition de certains curares. Les feuilles sont appliquées sur les ulcères[3]. 
-L'écorce servirait à confectionner des poisons de chasse[8],[4].
-Au Pérou, Abuta rufescens est employé par les Mestizo pour soigner le paludisme[9],[10] et la leishmaniose[11],[12].
-Les extraits de Abuta rufescens présenterait des propriétés hypoglycémiantes dans le diabète de type II[13],[14].
-Abuta rufescens contient des alcaloïdes qui ont fait l'objet de plusieurs études[15],[16],[17],[18],[19],[20].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, la tige et les racines d'Abuta rufescens sont préparées en tisanes avec contre les obstructions du foie et la morsure des serpents. Elle entrerait aussi dans la composition de certains curares. Les feuilles sont appliquées sur les ulcères. 
+L'écorce servirait à confectionner des poisons de chasse,.
+Au Pérou, Abuta rufescens est employé par les Mestizo pour soigner le paludisme, et la leishmaniose,.
+Les extraits de Abuta rufescens présenterait des propriétés hypoglycémiantes dans le diabète de type II,.
+Abuta rufescens contient des alcaloïdes qui ont fait l'objet de plusieurs études.
 </t>
         </is>
       </c>
@@ -645,9 +665,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[21] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « ABUTA (rufeſcens) foliis ovatis, ſubtùs villoſis. (Tabula 250.)
 Abuta ſcandens. Barr. Fran. Equinox, pag. 1. 
 Frutex trunco tortuoſo, ſuprà arbores ſcandente ; ramis ſarmentoſis, latè ſparſis, &amp; ſuprà cacumen arborum protenſis ; ramulis tomentoſis, folioſis. Folia alterna, ſubcordata, acuta, nervoſa, integerrima, ſupernè glabra, viridia, infernè tomentoſa, cinerea, petiolata, petiolo craſſo, longo, rigido. Fructus racemoſi, axillares. Pedicellis &amp; pedunculis villoſis, cinereis. 
@@ -694,9 +716,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (27 décembre 2013)[22] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (27 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Abuta rufescens var. oblongata Griseb.</t>
         </is>
       </c>
